--- a/ENGL/ENGL_modalities.xlsx
+++ b/ENGL/ENGL_modalities.xlsx
@@ -524,10 +524,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D5" t="n">
-        <v>18.72</v>
+        <v>18.8</v>
       </c>
       <c r="E5" t="n">
         <v>25</v>
@@ -574,10 +574,10 @@
         <v>104</v>
       </c>
       <c r="C6" t="n">
-        <v>2407</v>
+        <v>2421</v>
       </c>
       <c r="D6" t="n">
-        <v>23.14423076923077</v>
+        <v>23.27884615384615</v>
       </c>
       <c r="E6" t="n">
         <v>104</v>
@@ -599,10 +599,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D7" t="n">
-        <v>17.15384615384615</v>
+        <v>16.84615384615385</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>

--- a/ENGL/ENGL_modalities.xlsx
+++ b/ENGL/ENGL_modalities.xlsx
@@ -549,10 +549,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D5" t="n">
-        <v>18.8</v>
+        <v>18.72</v>
       </c>
       <c r="E5" t="n">
         <v>25</v>
@@ -574,10 +574,10 @@
         <v>104</v>
       </c>
       <c r="C6" t="n">
-        <v>2421</v>
+        <v>2424</v>
       </c>
       <c r="D6" t="n">
-        <v>23.27884615384615</v>
+        <v>23.30769230769231</v>
       </c>
       <c r="E6" t="n">
         <v>104</v>

--- a/ENGL/ENGL_modalities.xlsx
+++ b/ENGL/ENGL_modalities.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,20 +514,24 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Modality</t>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr"/>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AHS *</t>
+        </is>
+      </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,76 +546,101 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Course</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>468</v>
+        <v>336</v>
       </c>
       <c r="D5" t="n">
-        <v>18.72</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>600</v>
+        <v>785</v>
       </c>
       <c r="G5" t="n">
-        <v>24</v>
+        <v>28.03571428571428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Online Course</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>2424</v>
+        <v>506</v>
       </c>
       <c r="D6" t="n">
-        <v>23.30769230769231</v>
+        <v>12.97435897435897</v>
       </c>
       <c r="E6" t="n">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="F6" t="n">
-        <v>2890</v>
+        <v>920</v>
       </c>
       <c r="G6" t="n">
-        <v>27.78846153846154</v>
+        <v>23.58974358974359</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Remote Course</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C7" t="n">
-        <v>219</v>
+        <v>1034</v>
       </c>
       <c r="D7" t="n">
-        <v>16.84615384615385</v>
+        <v>14.98550724637681</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F7" t="n">
-        <v>210</v>
+        <v>1920</v>
       </c>
       <c r="G7" t="n">
-        <v>16.15384615384615</v>
+        <v>27.82608695652174</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>REMOTE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>92</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15.33333333333333</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>170</v>
+      </c>
+      <c r="G8" t="n">
+        <v>28.33333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/ENGL/ENGL_modalities.xlsx
+++ b/ENGL/ENGL_modalities.xlsx
@@ -553,10 +553,10 @@
         <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
         <v>28</v>
@@ -578,10 +578,10 @@
         <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>506</v>
+        <v>573</v>
       </c>
       <c r="D6" t="n">
-        <v>12.97435897435897</v>
+        <v>14.69230769230769</v>
       </c>
       <c r="E6" t="n">
         <v>39</v>
@@ -603,10 +603,10 @@
         <v>69</v>
       </c>
       <c r="C7" t="n">
-        <v>1034</v>
+        <v>1144</v>
       </c>
       <c r="D7" t="n">
-        <v>14.98550724637681</v>
+        <v>16.57971014492754</v>
       </c>
       <c r="E7" t="n">
         <v>69</v>
@@ -628,10 +628,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D8" t="n">
-        <v>15.33333333333333</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
